--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1303521.463902315</v>
+        <v>1237661.382310306</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13817916.26340407</v>
+        <v>13817916.26340408</v>
       </c>
     </row>
     <row r="9">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663199</v>
+        <v>6.396723986041435</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.396723986041382</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>54.66995264655117</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.4022924851448</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S12" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U12" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>90.37747597900118</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.62265368966429</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="D14" t="n">
-        <v>68.45099403238653</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,49 +1624,49 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="I14" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>158.7758131900531</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>149.7702446909496</v>
@@ -1742,19 +1742,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15.4022924851448</v>
+      </c>
+      <c r="Y15" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>3.308154846006509</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.26693407041005</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T16" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>32.35016756540409</v>
       </c>
       <c r="V16" t="n">
         <v>187.5255871663199</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>57.08569488870511</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.1637893657753</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2.097521993176646</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>187.5255871663199</v>
+        <v>44.55389676611281</v>
       </c>
       <c r="W18" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>32.3501675654041</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>36.93205894292325</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R19" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>153.8072380324132</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>64.33077982535481</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U21" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X21" t="n">
-        <v>8.009187143572388</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>29.00708539155838</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S22" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>99.32888348293551</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H23" t="n">
-        <v>153.807238032413</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>28.33592091243845</v>
       </c>
       <c r="T23" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W23" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S24" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>60.09988737406783</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>124.5908435032134</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>19.75148915316327</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W25" t="n">
-        <v>67.91719953966582</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>149.7702446909496</v>
+        <v>83.9063575900044</v>
       </c>
       <c r="T27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>15.4022924851448</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>29.00708539155837</v>
+        <v>19.75148915316325</v>
       </c>
       <c r="T28" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V28" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X28" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F29" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.4022924851448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>29.00874781031917</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W30" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R31" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>102.4270797608673</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>17.75259673058004</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C32" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>29.00874781031918</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X33" t="n">
-        <v>138.261311358952</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y33" t="n">
         <v>187.5255871663199</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>132.8223696106904</v>
+        <v>54.73858233570771</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>32.35016756540409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>165.1725371760945</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V35" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>153.8072380324132</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>17.98527853018306</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T36" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>186.1649406925471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T37" t="n">
-        <v>4.011337832015075</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U37" t="n">
-        <v>187.5255871663199</v>
+        <v>16.84138281123834</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G38" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>29.00874781031929</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U39" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>168.141818069871</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>91.7839336771177</v>
       </c>
       <c r="T40" t="n">
-        <v>59.74408347291986</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H41" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.36529914368134</v>
+        <v>6.396723986041319</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T41" t="n">
-        <v>28.33592091243833</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I42" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>64.33077982535475</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>16.03942774926912</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W42" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2506711422647</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.5255871663199</v>
+        <v>89.03358958230474</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C44" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>57.08569488870511</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I44" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S44" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>153.807238032413</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71.46512258325507</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>16.76748852705868</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>85.57506575388565</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R46" t="n">
         <v>132.8223696106904</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>73.44179208515474</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>400.3029543659128</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="C11" t="n">
-        <v>400.3029543659128</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="D11" t="n">
-        <v>210.8831693494281</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="E11" t="n">
-        <v>210.8831693494281</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="F11" t="n">
-        <v>21.46338433294335</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G11" t="n">
-        <v>21.46338433294335</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H11" t="n">
-        <v>21.46338433294335</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I11" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O11" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S11" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="T11" t="n">
-        <v>589.7227393823975</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="U11" t="n">
-        <v>589.7227393823975</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="V11" t="n">
-        <v>589.7227393823975</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="W11" t="n">
-        <v>589.7227393823975</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="X11" t="n">
-        <v>589.7227393823975</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="Y11" t="n">
-        <v>400.3029543659128</v>
+        <v>21.46338433294341</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.55991817042155</v>
+        <v>326.9942574319834</v>
       </c>
       <c r="C12" t="n">
-        <v>30.55991817042155</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D12" t="n">
-        <v>30.55991817042155</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E12" t="n">
-        <v>30.55991817042155</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F12" t="n">
-        <v>30.55991817042155</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G12" t="n">
-        <v>30.55991817042155</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H12" t="n">
-        <v>30.55991817042155</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I12" t="n">
         <v>15.00204697330559</v>
@@ -5123,49 +5123,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024193</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546599</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S12" t="n">
-        <v>598.8192732198758</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="T12" t="n">
-        <v>409.399488203391</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="U12" t="n">
-        <v>219.9797031869063</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="V12" t="n">
-        <v>219.9797031869063</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="W12" t="n">
-        <v>219.9797031869063</v>
+        <v>382.2164318224392</v>
       </c>
       <c r="X12" t="n">
-        <v>30.55991817042155</v>
+        <v>382.2164318224392</v>
       </c>
       <c r="Y12" t="n">
-        <v>30.55991817042155</v>
+        <v>382.2164318224392</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338.6743763011175</v>
+        <v>331.8513234836056</v>
       </c>
       <c r="C13" t="n">
-        <v>338.6743763011175</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="D13" t="n">
-        <v>338.6743763011175</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E13" t="n">
-        <v>338.6743763011175</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F13" t="n">
-        <v>338.6743763011175</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G13" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H13" t="n">
         <v>15.00204697330559</v>
@@ -5202,49 +5202,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330559</v>
+        <v>88.2958943459421</v>
       </c>
       <c r="L13" t="n">
-        <v>187.8896250884407</v>
+        <v>100.3335179349383</v>
       </c>
       <c r="M13" t="n">
-        <v>373.5399563830973</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N13" t="n">
-        <v>559.190287677754</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O13" t="n">
-        <v>721.9284911143042</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P13" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q13" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R13" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="S13" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="T13" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="U13" t="n">
-        <v>528.0941613176022</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="V13" t="n">
-        <v>528.0941613176022</v>
+        <v>612.5614882768592</v>
       </c>
       <c r="W13" t="n">
-        <v>528.0941613176022</v>
+        <v>423.1417032603745</v>
       </c>
       <c r="X13" t="n">
-        <v>528.0941613176022</v>
+        <v>423.1417032603745</v>
       </c>
       <c r="Y13" t="n">
-        <v>338.6743763011175</v>
+        <v>423.1417032603745</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>400.3029543659128</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C14" t="n">
-        <v>400.3029543659128</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D14" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E14" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F14" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G14" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
         <v>734.4611726020263</v>
@@ -5305,25 +5305,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="S14" t="n">
-        <v>589.7227393823975</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T14" t="n">
-        <v>589.7227393823975</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U14" t="n">
-        <v>589.7227393823975</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V14" t="n">
-        <v>589.7227393823975</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W14" t="n">
-        <v>589.7227393823975</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X14" t="n">
-        <v>589.7227393823975</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y14" t="n">
-        <v>400.3029543659128</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>189.4550762544326</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C15" t="n">
         <v>15.00204697330559</v>
@@ -5372,7 +5372,7 @@
         <v>512.50005875466</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P15" t="n">
         <v>739.598998701706</v>
@@ -5381,28 +5381,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R15" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S15" t="n">
-        <v>571.6362168389238</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T15" t="n">
-        <v>382.2164318224391</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U15" t="n">
-        <v>382.2164318224391</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V15" t="n">
-        <v>192.7966468059543</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W15" t="n">
-        <v>192.7966468059543</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="X15" t="n">
-        <v>189.4550762544326</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y15" t="n">
-        <v>189.4550762544326</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.07345341364993</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C16" t="n">
-        <v>52.07345341364993</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D16" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E16" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F16" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
         <v>15.00204697330559</v>
@@ -5442,13 +5442,13 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L16" t="n">
-        <v>279.6026869745584</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M16" t="n">
-        <v>465.2530182692151</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N16" t="n">
-        <v>650.9033495638718</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O16" t="n">
         <v>750.1023486652795</v>
@@ -5457,31 +5457,31 @@
         <v>750.1023486652795</v>
       </c>
       <c r="Q16" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R16" t="n">
-        <v>612.5614882768591</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S16" t="n">
-        <v>612.5614882768591</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="T16" t="n">
-        <v>423.1417032603744</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="U16" t="n">
-        <v>423.1417032603744</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V16" t="n">
-        <v>233.7219182438896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W16" t="n">
-        <v>233.7219182438896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X16" t="n">
-        <v>233.7219182438896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y16" t="n">
-        <v>233.7219182438896</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.8228542207801</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C17" t="n">
-        <v>388.8228542207801</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D17" t="n">
-        <v>388.8228542207801</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E17" t="n">
-        <v>199.4030692042953</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F17" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G17" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H17" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I17" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J17" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K17" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L17" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M17" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O17" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P17" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q17" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R17" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S17" t="n">
-        <v>578.2426392372648</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T17" t="n">
-        <v>578.2426392372648</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U17" t="n">
-        <v>578.2426392372648</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V17" t="n">
-        <v>388.8228542207801</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W17" t="n">
-        <v>388.8228542207801</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X17" t="n">
-        <v>388.8228542207801</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="Y17" t="n">
-        <v>388.8228542207801</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152.5412281508565</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="C18" t="n">
-        <v>152.5412281508565</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="D18" t="n">
-        <v>152.5412281508565</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E18" t="n">
-        <v>152.5412281508565</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F18" t="n">
         <v>152.5412281508565</v>
       </c>
       <c r="G18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K18" t="n">
         <v>67.13418877024213</v>
       </c>
       <c r="L18" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M18" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N18" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O18" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P18" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q18" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R18" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S18" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T18" t="n">
-        <v>720.8005832003107</v>
+        <v>533.499507267843</v>
       </c>
       <c r="U18" t="n">
-        <v>720.8005832003107</v>
+        <v>533.499507267843</v>
       </c>
       <c r="V18" t="n">
-        <v>531.380798183826</v>
+        <v>488.4955711404563</v>
       </c>
       <c r="W18" t="n">
-        <v>341.9610131673412</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="X18" t="n">
-        <v>341.9610131673412</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="Y18" t="n">
-        <v>152.5412281508565</v>
+        <v>299.0757861239715</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.67898390805721</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="C19" t="n">
-        <v>15.00204697330559</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="D19" t="n">
-        <v>15.00204697330559</v>
+        <v>330.580817908301</v>
       </c>
       <c r="E19" t="n">
-        <v>15.00204697330559</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F19" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G19" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H19" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I19" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J19" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K19" t="n">
-        <v>15.00204697330559</v>
+        <v>43.17590452428104</v>
       </c>
       <c r="L19" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394161</v>
       </c>
       <c r="M19" t="n">
-        <v>285.9838492295949</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N19" t="n">
-        <v>471.6341805242515</v>
+        <v>587.3641452287296</v>
       </c>
       <c r="O19" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P19" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q19" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R19" t="n">
-        <v>615.9383389575114</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S19" t="n">
-        <v>426.5185539410267</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T19" t="n">
-        <v>237.0987689245419</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="U19" t="n">
-        <v>237.0987689245419</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="V19" t="n">
-        <v>237.0987689245419</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="W19" t="n">
-        <v>237.0987689245419</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="X19" t="n">
-        <v>237.0987689245419</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.67898390805721</v>
+        <v>367.8859279516578</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>393.8416170062751</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C20" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D20" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E20" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F20" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G20" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H20" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I20" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L20" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M20" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N20" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O20" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P20" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q20" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R20" t="n">
-        <v>738.6222485201469</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S20" t="n">
-        <v>738.6222485201469</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T20" t="n">
-        <v>738.6222485201469</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U20" t="n">
-        <v>549.2024635036621</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V20" t="n">
-        <v>549.2024635036621</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W20" t="n">
-        <v>549.2024635036621</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X20" t="n">
-        <v>549.2024635036621</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y20" t="n">
-        <v>393.8416170062751</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>335.9896342275476</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C21" t="n">
-        <v>161.5366049464206</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D21" t="n">
-        <v>161.5366049464206</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E21" t="n">
-        <v>161.5366049464206</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F21" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="G21" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K21" t="n">
         <v>67.13418877024213</v>
@@ -5840,43 +5840,43 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M21" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N21" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O21" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P21" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q21" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R21" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S21" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T21" t="n">
-        <v>533.4995072678429</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U21" t="n">
-        <v>344.0797222513581</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V21" t="n">
-        <v>344.0797222513581</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W21" t="n">
-        <v>344.0797222513581</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X21" t="n">
-        <v>335.9896342275476</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y21" t="n">
-        <v>335.9896342275476</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.30213322740497</v>
+        <v>330.580817908301</v>
       </c>
       <c r="C22" t="n">
-        <v>44.30213322740497</v>
+        <v>330.580817908301</v>
       </c>
       <c r="D22" t="n">
-        <v>44.30213322740497</v>
+        <v>330.580817908301</v>
       </c>
       <c r="E22" t="n">
-        <v>44.30213322740497</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F22" t="n">
-        <v>44.30213322740497</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K22" t="n">
-        <v>88.2958943459421</v>
+        <v>43.17590452428104</v>
       </c>
       <c r="L22" t="n">
-        <v>100.3335179349383</v>
+        <v>216.0634826394161</v>
       </c>
       <c r="M22" t="n">
-        <v>285.983849229595</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N22" t="n">
-        <v>471.6341805242516</v>
+        <v>587.3641452287296</v>
       </c>
       <c r="O22" t="n">
-        <v>634.3723839608018</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P22" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q22" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R22" t="n">
-        <v>612.5614882768592</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="S22" t="n">
-        <v>423.1417032603745</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="T22" t="n">
-        <v>233.7219182438897</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="U22" t="n">
-        <v>233.7219182438897</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="V22" t="n">
-        <v>44.30213322740497</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="W22" t="n">
-        <v>44.30213322740497</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="X22" t="n">
-        <v>44.30213322740497</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.30213322740497</v>
+        <v>512.2292827385407</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>359.7826784871772</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="C23" t="n">
-        <v>359.7826784871772</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="D23" t="n">
-        <v>359.7826784871772</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="E23" t="n">
-        <v>170.3628934706925</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="F23" t="n">
-        <v>170.3628934706925</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G23" t="n">
-        <v>170.3628934706925</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H23" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I23" t="n">
         <v>15.00204697330559</v>
@@ -6004,37 +6004,37 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O23" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P23" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q23" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R23" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S23" t="n">
-        <v>738.6222485201467</v>
+        <v>710.0001061843502</v>
       </c>
       <c r="T23" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="U23" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="V23" t="n">
-        <v>549.202463503662</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="W23" t="n">
-        <v>359.7826784871772</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7826784871772</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="Y23" t="n">
-        <v>359.7826784871772</v>
+        <v>331.1605361513809</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>348.6925312598881</v>
+        <v>428.8546183923266</v>
       </c>
       <c r="C24" t="n">
-        <v>174.2395019787611</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="D24" t="n">
-        <v>174.2395019787611</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E24" t="n">
-        <v>15.00204697330559</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F24" t="n">
-        <v>15.00204697330559</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G24" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H24" t="n">
         <v>15.00204697330559</v>
@@ -6071,7 +6071,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K24" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L24" t="n">
         <v>183.5548280772649</v>
@@ -6083,37 +6083,37 @@
         <v>512.5000587546598</v>
       </c>
       <c r="O24" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P24" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q24" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R24" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S24" t="n">
-        <v>598.8192732198758</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="T24" t="n">
-        <v>598.8192732198758</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="U24" t="n">
-        <v>538.1123162763729</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="V24" t="n">
-        <v>348.6925312598881</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="W24" t="n">
-        <v>348.6925312598881</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="X24" t="n">
-        <v>348.6925312598881</v>
+        <v>597.0699554123946</v>
       </c>
       <c r="Y24" t="n">
-        <v>348.6925312598881</v>
+        <v>597.0699554123946</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.1186863856413</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C25" t="n">
-        <v>165.1186863856413</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D25" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E25" t="n">
-        <v>15.00204697330559</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F25" t="n">
         <v>15.00204697330559</v>
@@ -6153,46 +6153,46 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L25" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M25" t="n">
-        <v>465.2530182692151</v>
+        <v>304.4030637430761</v>
       </c>
       <c r="N25" t="n">
-        <v>633.0454302264752</v>
+        <v>490.0533950377328</v>
       </c>
       <c r="O25" t="n">
-        <v>634.3723839608017</v>
+        <v>652.791598474283</v>
       </c>
       <c r="P25" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q25" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R25" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S25" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T25" t="n">
-        <v>423.1417032603744</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U25" t="n">
-        <v>233.7219182438896</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7219182438896</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W25" t="n">
-        <v>165.1186863856413</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X25" t="n">
-        <v>165.1186863856413</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.1186863856413</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="C26" t="n">
-        <v>15.00204697330559</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D26" t="n">
-        <v>15.00204697330559</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="E26" t="n">
-        <v>15.00204697330559</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="F26" t="n">
-        <v>15.00204697330559</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G26" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H26" t="n">
         <v>15.00204697330559</v>
@@ -6232,46 +6232,46 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L26" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M26" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N26" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O26" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P26" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q26" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R26" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S26" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T26" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U26" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V26" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W26" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X26" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y26" t="n">
-        <v>204.4218319897903</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.00204697330559</v>
+        <v>475.9286670932347</v>
       </c>
       <c r="C27" t="n">
-        <v>15.00204697330559</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="D27" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E27" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F27" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G27" t="n">
         <v>15.00204697330559</v>
@@ -6326,31 +6326,31 @@
         <v>739.5989987017063</v>
       </c>
       <c r="Q27" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R27" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S27" t="n">
-        <v>598.8192732198758</v>
+        <v>665.3484521097193</v>
       </c>
       <c r="T27" t="n">
-        <v>409.399488203391</v>
+        <v>665.3484521097193</v>
       </c>
       <c r="U27" t="n">
-        <v>393.841617006275</v>
+        <v>475.9286670932347</v>
       </c>
       <c r="V27" t="n">
-        <v>204.4218319897903</v>
+        <v>475.9286670932347</v>
       </c>
       <c r="W27" t="n">
-        <v>15.00204697330559</v>
+        <v>475.9286670932347</v>
       </c>
       <c r="X27" t="n">
-        <v>15.00204697330559</v>
+        <v>475.9286670932347</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.00204697330559</v>
+        <v>475.9286670932347</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.00204697330559</v>
+        <v>161.891994471216</v>
       </c>
       <c r="C28" t="n">
-        <v>15.00204697330559</v>
+        <v>161.891994471216</v>
       </c>
       <c r="D28" t="n">
-        <v>15.00204697330559</v>
+        <v>161.891994471216</v>
       </c>
       <c r="E28" t="n">
-        <v>15.00204697330559</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F28" t="n">
         <v>15.00204697330559</v>
@@ -6387,49 +6387,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K28" t="n">
-        <v>89.6677376722036</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L28" t="n">
-        <v>262.5553157873387</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M28" t="n">
-        <v>448.2056470819953</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N28" t="n">
-        <v>471.6341805242515</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O28" t="n">
-        <v>634.3723839608017</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P28" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q28" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R28" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S28" t="n">
-        <v>583.2614020227597</v>
+        <v>730.15134952067</v>
       </c>
       <c r="T28" t="n">
-        <v>393.841617006275</v>
+        <v>730.15134952067</v>
       </c>
       <c r="U28" t="n">
-        <v>393.841617006275</v>
+        <v>540.7315645041854</v>
       </c>
       <c r="V28" t="n">
-        <v>204.4218319897903</v>
+        <v>351.3117794877006</v>
       </c>
       <c r="W28" t="n">
-        <v>204.4218319897903</v>
+        <v>161.891994471216</v>
       </c>
       <c r="X28" t="n">
-        <v>15.00204697330559</v>
+        <v>161.891994471216</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.00204697330559</v>
+        <v>161.891994471216</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>583.2614020227597</v>
+      </c>
+      <c r="C29" t="n">
+        <v>583.2614020227597</v>
+      </c>
+      <c r="D29" t="n">
+        <v>583.2614020227597</v>
+      </c>
+      <c r="E29" t="n">
+        <v>393.841617006275</v>
+      </c>
+      <c r="F29" t="n">
         <v>204.4218319897903</v>
-      </c>
-      <c r="C29" t="n">
-        <v>204.4218319897903</v>
-      </c>
-      <c r="D29" t="n">
-        <v>204.4218319897903</v>
-      </c>
-      <c r="E29" t="n">
-        <v>204.4218319897903</v>
-      </c>
-      <c r="F29" t="n">
-        <v>15.00204697330559</v>
       </c>
       <c r="G29" t="n">
         <v>15.00204697330559</v>
@@ -6463,52 +6463,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J29" t="n">
-        <v>21.03371160678496</v>
+        <v>21.0337116067845</v>
       </c>
       <c r="K29" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058899</v>
       </c>
       <c r="L29" t="n">
-        <v>191.8743094079181</v>
+        <v>191.874309407918</v>
       </c>
       <c r="M29" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N29" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O29" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985578</v>
       </c>
       <c r="P29" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q29" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R29" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S29" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T29" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U29" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V29" t="n">
-        <v>549.202463503662</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W29" t="n">
-        <v>549.202463503662</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X29" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y29" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C30" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D30" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E30" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F30" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G30" t="n">
         <v>15.00204697330559</v>
@@ -6563,31 +6563,31 @@
         <v>739.5989987017063</v>
       </c>
       <c r="Q30" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R30" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S30" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T30" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U30" t="n">
-        <v>409.399488203391</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V30" t="n">
-        <v>409.399488203391</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W30" t="n">
-        <v>219.9797031869063</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X30" t="n">
-        <v>219.9797031869063</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y30" t="n">
-        <v>30.55991817042155</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>330.8281773991229</v>
+        <v>357.7253322484279</v>
       </c>
       <c r="C31" t="n">
-        <v>161.891994471216</v>
+        <v>188.7891493205209</v>
       </c>
       <c r="D31" t="n">
-        <v>161.891994471216</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E31" t="n">
-        <v>161.891994471216</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F31" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G31" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I31" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J31" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7151088594234</v>
+        <v>43.17590452428081</v>
       </c>
       <c r="L31" t="n">
-        <v>262.5553157873387</v>
+        <v>216.0634826394159</v>
       </c>
       <c r="M31" t="n">
-        <v>448.2056470819953</v>
+        <v>401.7138139340725</v>
       </c>
       <c r="N31" t="n">
-        <v>471.6341805242515</v>
+        <v>587.3641452287292</v>
       </c>
       <c r="O31" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="P31" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q31" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R31" t="n">
-        <v>615.9383389575114</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="S31" t="n">
-        <v>512.4766422293626</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="T31" t="n">
-        <v>512.4766422293626</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="U31" t="n">
-        <v>512.4766422293626</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="V31" t="n">
-        <v>512.4766422293626</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="W31" t="n">
-        <v>512.4766422293626</v>
+        <v>728.7935820951523</v>
       </c>
       <c r="X31" t="n">
-        <v>512.4766422293626</v>
+        <v>728.7935820951523</v>
       </c>
       <c r="Y31" t="n">
-        <v>512.4766422293626</v>
+        <v>539.3737970786676</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>393.841617006275</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="C32" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="D32" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="E32" t="n">
-        <v>15.00204697330559</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="F32" t="n">
         <v>15.00204697330559</v>
@@ -6700,52 +6700,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J32" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K32" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L32" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M32" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N32" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O32" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P32" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q32" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R32" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S32" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T32" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U32" t="n">
-        <v>583.2614020227597</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="V32" t="n">
-        <v>583.2614020227597</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="W32" t="n">
-        <v>393.841617006275</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="X32" t="n">
-        <v>393.841617006275</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="Y32" t="n">
-        <v>393.841617006275</v>
+        <v>549.2024635036621</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="G33" t="n">
-        <v>15.00204697330559</v>
+        <v>44.30381243827446</v>
       </c>
       <c r="H33" t="n">
-        <v>15.00204697330559</v>
+        <v>44.30381243827446</v>
       </c>
       <c r="I33" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J33" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733055</v>
       </c>
       <c r="K33" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024205</v>
       </c>
       <c r="L33" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M33" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N33" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O33" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P33" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q33" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R33" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S33" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T33" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U33" t="n">
-        <v>533.4995072678428</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V33" t="n">
-        <v>533.4995072678428</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W33" t="n">
-        <v>344.079722251358</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4218319897903</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.00204697330559</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="C34" t="n">
-        <v>15.00204697330559</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="D34" t="n">
-        <v>15.00204697330559</v>
+        <v>355.2744269276634</v>
       </c>
       <c r="E34" t="n">
-        <v>15.00204697330559</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="F34" t="n">
-        <v>15.00204697330559</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="G34" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H34" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I34" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J34" t="n">
         <v>15.00204697330559</v>
@@ -6870,40 +6870,40 @@
         <v>373.5399563830973</v>
       </c>
       <c r="N34" t="n">
-        <v>559.190287677754</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O34" t="n">
-        <v>721.9284911143042</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P34" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q34" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R34" t="n">
-        <v>615.9383389575114</v>
+        <v>694.8108513564839</v>
       </c>
       <c r="S34" t="n">
-        <v>615.9383389575114</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="T34" t="n">
-        <v>615.9383389575114</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="U34" t="n">
-        <v>426.5185539410267</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="V34" t="n">
-        <v>237.0987689245419</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="W34" t="n">
-        <v>204.4218319897903</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4218319897903</v>
+        <v>505.3910663399992</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.00204697330559</v>
+        <v>505.3910663399992</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C35" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D35" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="E35" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F35" t="n">
-        <v>181.8429936158253</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G35" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H35" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I35" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J35" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K35" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L35" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M35" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N35" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O35" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P35" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q35" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R35" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="S35" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="T35" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="U35" t="n">
-        <v>560.6825636487948</v>
+        <v>549.2024635036624</v>
       </c>
       <c r="V35" t="n">
-        <v>371.2627786323101</v>
+        <v>359.7826784871776</v>
       </c>
       <c r="W35" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X35" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y35" t="n">
-        <v>371.2627786323101</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="C36" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="D36" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="E36" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="F36" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G36" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="H36" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="I36" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J36" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330596</v>
       </c>
       <c r="K36" t="n">
-        <v>67.13418877024213</v>
+        <v>67.1341887702425</v>
       </c>
       <c r="L36" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M36" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N36" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O36" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P36" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q36" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R36" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S36" t="n">
-        <v>750.1023486652796</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T36" t="n">
-        <v>560.6825636487948</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="U36" t="n">
-        <v>371.2627786323101</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="V36" t="n">
-        <v>371.2627786323101</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="W36" t="n">
-        <v>371.2627786323101</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="X36" t="n">
-        <v>371.2627786323101</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="Y36" t="n">
-        <v>183.2173839933736</v>
+        <v>219.9797031869066</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.5624574060956</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="C37" t="n">
-        <v>185.5624574060956</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="D37" t="n">
-        <v>185.5624574060956</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="E37" t="n">
-        <v>185.5624574060956</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="F37" t="n">
-        <v>38.67250990818523</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="G37" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="H37" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="I37" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="J37" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7151088594234</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L37" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M37" t="n">
-        <v>401.7138139340727</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N37" t="n">
-        <v>587.3641452287294</v>
+        <v>559.1902876777542</v>
       </c>
       <c r="O37" t="n">
-        <v>750.1023486652796</v>
+        <v>721.9284911143044</v>
       </c>
       <c r="P37" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q37" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R37" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S37" t="n">
-        <v>750.1023486652796</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="T37" t="n">
-        <v>746.0504922693048</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="U37" t="n">
-        <v>556.63070725282</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="V37" t="n">
-        <v>556.63070725282</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="W37" t="n">
-        <v>556.63070725282</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="X37" t="n">
-        <v>367.2109222363353</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="Y37" t="n">
-        <v>367.2109222363353</v>
+        <v>354.2512808431807</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C38" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D38" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E38" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F38" t="n">
-        <v>371.26277863231</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G38" t="n">
-        <v>331.1605361513809</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H38" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I38" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J38" t="n">
-        <v>21.03371160678461</v>
+        <v>21.03371160678497</v>
       </c>
       <c r="K38" t="n">
-        <v>80.8121315905891</v>
+        <v>80.81213159058946</v>
       </c>
       <c r="L38" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M38" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N38" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O38" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P38" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q38" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R38" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S38" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T38" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U38" t="n">
-        <v>560.6825636487947</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V38" t="n">
-        <v>371.26277863231</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W38" t="n">
-        <v>371.26277863231</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X38" t="n">
-        <v>371.26277863231</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y38" t="n">
-        <v>371.26277863231</v>
+        <v>583.2614020227602</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>174.2395019787611</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C39" t="n">
-        <v>174.2395019787611</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="D39" t="n">
-        <v>174.2395019787611</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E39" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F39" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G39" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H39" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I39" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J39" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330596</v>
       </c>
       <c r="K39" t="n">
-        <v>67.13418877024208</v>
+        <v>67.1341887702425</v>
       </c>
       <c r="L39" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M39" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N39" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O39" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P39" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q39" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R39" t="n">
-        <v>722.9192922843275</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S39" t="n">
-        <v>722.9192922843275</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T39" t="n">
-        <v>722.9192922843275</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U39" t="n">
-        <v>533.4995072678428</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V39" t="n">
-        <v>533.4995072678428</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W39" t="n">
-        <v>363.6592869952458</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X39" t="n">
-        <v>363.6592869952458</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="Y39" t="n">
-        <v>174.2395019787611</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>310.9152195687546</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="C40" t="n">
-        <v>141.9790366408477</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="D40" t="n">
-        <v>141.9790366408477</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="E40" t="n">
-        <v>141.9790366408477</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F40" t="n">
-        <v>141.9790366408477</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G40" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H40" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I40" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J40" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K40" t="n">
-        <v>43.1759045242809</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L40" t="n">
-        <v>216.063482639416</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M40" t="n">
-        <v>401.7138139340726</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N40" t="n">
-        <v>587.3641452287293</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O40" t="n">
-        <v>750.1023486652795</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P40" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q40" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R40" t="n">
-        <v>750.1023486652795</v>
+        <v>615.938338957512</v>
       </c>
       <c r="S40" t="n">
-        <v>750.1023486652795</v>
+        <v>523.2272948392113</v>
       </c>
       <c r="T40" t="n">
-        <v>689.754789601724</v>
+        <v>523.2272948392113</v>
       </c>
       <c r="U40" t="n">
-        <v>689.754789601724</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="V40" t="n">
-        <v>689.754789601724</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="W40" t="n">
-        <v>689.754789601724</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="X40" t="n">
-        <v>500.3350045852393</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="Y40" t="n">
-        <v>310.9152195687546</v>
+        <v>333.8075098227264</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.1605361513809</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C41" t="n">
-        <v>331.1605361513809</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D41" t="n">
-        <v>331.1605361513809</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E41" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F41" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G41" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H41" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I41" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J41" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K41" t="n">
         <v>80.81213159058944</v>
       </c>
       <c r="L41" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M41" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644749</v>
       </c>
       <c r="N41" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123823</v>
       </c>
       <c r="O41" t="n">
         <v>649.484525998558</v>
       </c>
       <c r="P41" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q41" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R41" t="n">
-        <v>738.6222485201467</v>
+        <v>743.6410113056417</v>
       </c>
       <c r="S41" t="n">
-        <v>738.6222485201467</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T41" t="n">
-        <v>710.0001061843504</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U41" t="n">
-        <v>710.0001061843504</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V41" t="n">
-        <v>710.0001061843504</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W41" t="n">
-        <v>520.5803211678657</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X41" t="n">
-        <v>331.1605361513809</v>
+        <v>393.841617006275</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.1605361513809</v>
+        <v>393.841617006275</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>376.2657844577477</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="C42" t="n">
-        <v>201.8127551766207</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D42" t="n">
-        <v>201.8127551766207</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E42" t="n">
-        <v>201.8127551766207</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8127551766207</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G42" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H42" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I42" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J42" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330528</v>
       </c>
       <c r="K42" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024182</v>
       </c>
       <c r="L42" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M42" t="n">
-        <v>338.7690911140241</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N42" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O42" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P42" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q42" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R42" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S42" t="n">
-        <v>750.1023486652795</v>
+        <v>685.1217629831028</v>
       </c>
       <c r="T42" t="n">
-        <v>750.1023486652795</v>
+        <v>685.1217629831028</v>
       </c>
       <c r="U42" t="n">
-        <v>733.9009064943006</v>
+        <v>685.1217629831028</v>
       </c>
       <c r="V42" t="n">
-        <v>733.9009064943006</v>
+        <v>495.7019779666181</v>
       </c>
       <c r="W42" t="n">
-        <v>544.4811214778158</v>
+        <v>495.7019779666181</v>
       </c>
       <c r="X42" t="n">
-        <v>544.4811214778158</v>
+        <v>306.2821929501334</v>
       </c>
       <c r="Y42" t="n">
-        <v>544.4811214778158</v>
+        <v>116.8624079336487</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.1186863856413</v>
+        <v>470.7496448787899</v>
       </c>
       <c r="C43" t="n">
-        <v>165.1186863856413</v>
+        <v>470.7496448787899</v>
       </c>
       <c r="D43" t="n">
-        <v>15.00204697330559</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="E43" t="n">
-        <v>15.00204697330559</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="F43" t="n">
-        <v>15.00204697330559</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="G43" t="n">
-        <v>15.00204697330559</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="H43" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I43" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J43" t="n">
         <v>15.00204697330559</v>
@@ -7575,46 +7575,46 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L43" t="n">
-        <v>118.7527324484195</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M43" t="n">
-        <v>304.4030637430762</v>
+        <v>448.2056470819952</v>
       </c>
       <c r="N43" t="n">
-        <v>490.0533950377329</v>
+        <v>471.6341805242514</v>
       </c>
       <c r="O43" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P43" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q43" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R43" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S43" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T43" t="n">
-        <v>725.6067212488505</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U43" t="n">
-        <v>725.6067212488505</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V43" t="n">
-        <v>725.6067212488505</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W43" t="n">
-        <v>725.6067212488505</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X43" t="n">
-        <v>536.1869362323657</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y43" t="n">
-        <v>346.767151215881</v>
+        <v>470.7496448787899</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>388.8228542207801</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C44" t="n">
-        <v>199.4030692042953</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D44" t="n">
-        <v>199.4030692042953</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E44" t="n">
-        <v>199.4030692042953</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F44" t="n">
-        <v>199.4030692042953</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G44" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H44" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I44" t="n">
         <v>15.00204697330559</v>
@@ -7657,43 +7657,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M44" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N44" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O44" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985578</v>
       </c>
       <c r="P44" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q44" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R44" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S44" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="T44" t="n">
-        <v>388.8228542207801</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="U44" t="n">
-        <v>388.8228542207801</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="V44" t="n">
-        <v>388.8228542207801</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W44" t="n">
-        <v>388.8228542207801</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X44" t="n">
-        <v>388.8228542207801</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y44" t="n">
-        <v>388.8228542207801</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>299.0757861239715</v>
+        <v>365.2841702477747</v>
       </c>
       <c r="C45" t="n">
-        <v>299.0757861239715</v>
+        <v>365.2841702477747</v>
       </c>
       <c r="D45" t="n">
-        <v>299.0757861239715</v>
+        <v>365.2841702477747</v>
       </c>
       <c r="E45" t="n">
-        <v>299.0757861239715</v>
+        <v>348.3473131497357</v>
       </c>
       <c r="F45" t="n">
-        <v>152.5412281508565</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G45" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H45" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I45" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J45" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330528</v>
       </c>
       <c r="K45" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024182</v>
       </c>
       <c r="L45" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M45" t="n">
-        <v>338.7690911140244</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N45" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O45" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P45" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q45" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R45" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S45" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="T45" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="U45" t="n">
-        <v>560.6825636487947</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="V45" t="n">
-        <v>560.6825636487947</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="W45" t="n">
-        <v>371.26277863231</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="X45" t="n">
-        <v>371.26277863231</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="Y45" t="n">
-        <v>371.26277863231</v>
+        <v>533.4995072678428</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>162.9151405556987</v>
+        <v>423.1417032603743</v>
       </c>
       <c r="C46" t="n">
-        <v>162.9151405556987</v>
+        <v>423.1417032603743</v>
       </c>
       <c r="D46" t="n">
-        <v>162.9151405556987</v>
+        <v>273.0250638480386</v>
       </c>
       <c r="E46" t="n">
-        <v>15.00204697330559</v>
+        <v>125.1119702656455</v>
       </c>
       <c r="F46" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G46" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H46" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I46" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J46" t="n">
         <v>15.00204697330559</v>
@@ -7815,43 +7815,43 @@
         <v>279.6026869745584</v>
       </c>
       <c r="M46" t="n">
-        <v>447.3950989318186</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N46" t="n">
-        <v>633.0454302264752</v>
+        <v>488.6815517114713</v>
       </c>
       <c r="O46" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P46" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q46" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R46" t="n">
-        <v>615.9383389575114</v>
+        <v>612.561488276859</v>
       </c>
       <c r="S46" t="n">
-        <v>615.9383389575114</v>
+        <v>612.561488276859</v>
       </c>
       <c r="T46" t="n">
-        <v>426.5185539410267</v>
+        <v>612.561488276859</v>
       </c>
       <c r="U46" t="n">
-        <v>352.3349255721835</v>
+        <v>612.561488276859</v>
       </c>
       <c r="V46" t="n">
-        <v>352.3349255721835</v>
+        <v>612.561488276859</v>
       </c>
       <c r="W46" t="n">
-        <v>352.3349255721835</v>
+        <v>612.561488276859</v>
       </c>
       <c r="X46" t="n">
-        <v>352.3349255721835</v>
+        <v>612.561488276859</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.9151405556987</v>
+        <v>423.1417032603743</v>
       </c>
     </row>
   </sheetData>
@@ -8455,25 +8455,25 @@
         <v>146.6785700294409</v>
       </c>
       <c r="K8" t="n">
-        <v>168.5821254460294</v>
+        <v>168.5821254460295</v>
       </c>
       <c r="L8" t="n">
-        <v>171.866526739833</v>
+        <v>171.8665267398331</v>
       </c>
       <c r="M8" t="n">
-        <v>159.2452953808898</v>
+        <v>159.2452953808899</v>
       </c>
       <c r="N8" t="n">
-        <v>157.1616382421116</v>
+        <v>157.1616382421117</v>
       </c>
       <c r="O8" t="n">
-        <v>161.8732392686623</v>
+        <v>161.8732392686624</v>
       </c>
       <c r="P8" t="n">
-        <v>173.0045604631797</v>
+        <v>173.0045604631798</v>
       </c>
       <c r="Q8" t="n">
-        <v>178.5785599527786</v>
+        <v>178.5785599527787</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>106.3686776799187</v>
       </c>
       <c r="K9" t="n">
-        <v>102.8567449097797</v>
+        <v>102.8567449097798</v>
       </c>
       <c r="L9" t="n">
-        <v>91.51314123064432</v>
+        <v>91.51314123064441</v>
       </c>
       <c r="M9" t="n">
-        <v>87.23912732694696</v>
+        <v>87.23912732694704</v>
       </c>
       <c r="N9" t="n">
-        <v>74.99390065558296</v>
+        <v>74.99390065558305</v>
       </c>
       <c r="O9" t="n">
-        <v>91.04900542656601</v>
+        <v>91.04900542656608</v>
       </c>
       <c r="P9" t="n">
-        <v>92.60320361761538</v>
+        <v>92.60320361761545</v>
       </c>
       <c r="Q9" t="n">
         <v>112.3262199654926</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>107.8805763427273</v>
+        <v>107.8805763427274</v>
       </c>
       <c r="M10" t="n">
-        <v>110.4537468166435</v>
+        <v>110.4537468166436</v>
       </c>
       <c r="N10" t="n">
-        <v>99.89050873911387</v>
+        <v>99.89050873911391</v>
       </c>
       <c r="O10" t="n">
         <v>112.7833242018753</v>
       </c>
       <c r="P10" t="n">
-        <v>115.7601340734872</v>
+        <v>115.7601340734873</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8850,13 +8850,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>88.13849915931792</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N13" t="n">
         <v>163.8604018711116</v>
@@ -8865,7 +8865,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9090,7 +9090,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>98.29368706161254</v>
       </c>
       <c r="M16" t="n">
         <v>171.4142040457083</v>
@@ -9099,7 +9099,7 @@
         <v>163.8604018711116</v>
       </c>
       <c r="O16" t="n">
-        <v>98.8606518859406</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>18.10760906709386</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>14.10430989402852</v>
+        <v>42.56275186471078</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>82.97369176944322</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N19" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>88.13849915931792</v>
+        <v>42.56275186471078</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
         <v>171.4142040457084</v>
       </c>
       <c r="N22" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9801,19 +9801,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N25" t="n">
-        <v>145.822099510105</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>116.4012961287064</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>89.52419948887498</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10044,13 +10044,13 @@
         <v>171.4142040457083</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777586</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471056</v>
       </c>
       <c r="L31" t="n">
-        <v>145.2551346857769</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10515,16 +10515,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N34" t="n">
-        <v>163.8604018711116</v>
+        <v>75.41988959484661</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>107.2331895657666</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N37" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777633</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>42.56275186471065</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N40" t="n">
-        <v>163.8604018711116</v>
+        <v>75.41988959484695</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>171.4142040457083</v>
+        <v>154.1946371899307</v>
       </c>
       <c r="N43" t="n">
-        <v>163.8604018711116</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>144.4363991805478</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11463,13 +11463,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>153.3759016847017</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N46" t="n">
-        <v>163.8604018711116</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>145.8220995101048</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23263,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753916</v>
+        <v>400.47932175567</v>
       </c>
       <c r="G11" t="n">
         <v>413.097833230058</v>
@@ -23278,7 +23278,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>119.0745931339333</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U11" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>111.8632310033162</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>33.37651927036177</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X12" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>89.45450420293612</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
         <v>125.7072197708667</v>
@@ -23472,19 +23472,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U13" t="n">
-        <v>202.642427803786</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027111</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>200.1003545949131</v>
       </c>
       <c r="D14" t="n">
-        <v>286.2320475882964</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23512,10 +23512,10 @@
         <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>7.884010625681384</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V15" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>202.464830357471</v>
+        <v>190.3706927183327</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3485389478023</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23676,7 +23676,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T16" t="n">
         <v>36.19408632378023</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>253.9149139280462</v>
       </c>
       <c r="V16" t="n">
         <v>64.61205615750814</v>
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E17" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>349.7903508530063</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.097833230058</v>
@@ -23752,7 +23752,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893581</v>
       </c>
       <c r="V17" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T18" t="n">
-        <v>193.3120757988246</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U18" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V18" t="n">
-        <v>45.2749999831054</v>
+        <v>188.2466903833125</v>
       </c>
       <c r="W18" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>134.8966535332237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>111.6834140752891</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>153.4336708318196</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S19" t="n">
-        <v>19.25466862917636</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T19" t="n">
-        <v>36.19408632378023</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713033</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>177.7473046046877</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H20" t="n">
         <v>316.8938261062223</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>158.7758131900531</v>
+        <v>4.968575157639862</v>
       </c>
       <c r="T20" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U20" t="n">
-        <v>63.64367339871043</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>232.4307006236405</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1637893657753</v>
+        <v>71.83300954042052</v>
       </c>
       <c r="H21" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>48.77881175550657</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S21" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T21" t="n">
-        <v>7.884010625681356</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U21" t="n">
-        <v>38.33818124377103</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X21" t="n">
-        <v>197.7637980599051</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.9948498111558</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.4336708318196</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.25466862917634</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T22" t="n">
-        <v>36.1940863237802</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U22" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V22" t="n">
-        <v>64.61205615750811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>119.2557698691593</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H23" t="n">
-        <v>163.0865880738093</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I23" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>158.7758131900531</v>
+        <v>130.4398922776147</v>
       </c>
       <c r="T23" t="n">
-        <v>25.91829388988691</v>
+        <v>25.91829388988694</v>
       </c>
       <c r="U23" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W23" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,16 +24293,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>48.77881175550657</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T24" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U24" t="n">
-        <v>165.7638810360231</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V24" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>81.18214170026403</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>126.6824734934059</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.0019352027142</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S25" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T25" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U25" t="n">
-        <v>98.73949432713042</v>
+        <v>98.73949432713044</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750816</v>
       </c>
       <c r="W25" t="n">
-        <v>218.6057987969252</v>
+        <v>98.99741117027116</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>200.1003545949131</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G26" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H26" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I26" t="n">
         <v>125.4713171199747</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S26" t="n">
         <v>158.7758131900531</v>
@@ -24499,10 +24499,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U26" t="n">
-        <v>97.3620225326172</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V26" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>100.8417573507397</v>
@@ -24572,19 +24572,19 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>65.86388710094522</v>
       </c>
       <c r="T27" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U27" t="n">
-        <v>210.4614759249461</v>
+        <v>38.33818124377109</v>
       </c>
       <c r="V27" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.0019352027142</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S28" t="n">
-        <v>177.7731704039379</v>
+        <v>187.028766642333</v>
       </c>
       <c r="T28" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713044</v>
       </c>
       <c r="V28" t="n">
-        <v>64.61205615750814</v>
+        <v>64.61205615750816</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027116</v>
       </c>
       <c r="X28" t="n">
-        <v>38.18406822271729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>195.2082544971607</v>
+        <v>217.5613044873862</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F29" t="n">
         <v>219.3504585753916</v>
       </c>
       <c r="G29" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H29" t="n">
         <v>316.8938261062223</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S29" t="n">
         <v>158.7758131900531</v>
@@ -24739,13 +24739,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V29" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>215.923862646056</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>151.1308911647225</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>116.0604645830647</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>100.8417573507397</v>
@@ -24809,25 +24809,25 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T30" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U30" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377109</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W30" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.0019352027142</v>
@@ -24861,7 +24861,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J31" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S31" t="n">
-        <v>104.3531760346289</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T31" t="n">
         <v>223.7196734901001</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>268.770401606011</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577495</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C32" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>194.4047829059419</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>253.0688077092983</v>
       </c>
       <c r="G32" t="n">
         <v>413.097833230058</v>
@@ -24973,19 +24973,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U32" t="n">
-        <v>97.3620225326172</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I33" t="n">
-        <v>48.77881175550657</v>
+        <v>19.7700639451874</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S33" t="n">
         <v>149.7702446909496</v>
@@ -25052,19 +25052,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U33" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X33" t="n">
-        <v>67.51167384452546</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.15710861098449</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="34">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.4336708318196</v>
@@ -25098,7 +25098,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J34" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.08378727498265</v>
       </c>
       <c r="S34" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917634</v>
       </c>
       <c r="T34" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U34" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V34" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>254.1728307711869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>247.9252960539635</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H35" t="n">
         <v>316.8938261062223</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>158.7758131900531</v>
@@ -25210,13 +25210,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U35" t="n">
-        <v>63.64367339871043</v>
+        <v>63.64367339871032</v>
       </c>
       <c r="V35" t="n">
-        <v>140.226671303815</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>195.4337306849998</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>148.5479051196843</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I36" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S36" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>7.884010625681356</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U36" t="n">
-        <v>38.33818124377103</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.51775508475728</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.4336708318196</v>
@@ -25362,13 +25362,13 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S37" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T37" t="n">
-        <v>219.708335658085</v>
+        <v>36.19408632378008</v>
       </c>
       <c r="U37" t="n">
-        <v>98.73949432713039</v>
+        <v>269.4236986822119</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>38.18406822271726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G38" t="n">
-        <v>373.3966131739383</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H38" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U38" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V38" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>221.065401479959</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>118.4363177543195</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>100.8417573507397</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S39" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T39" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681242</v>
       </c>
       <c r="U39" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>83.55316509104861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y39" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J40" t="n">
         <v>23.43375830553084</v>
@@ -25596,16 +25596,16 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R40" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>206.7802557954962</v>
+        <v>114.9963221183785</v>
       </c>
       <c r="T40" t="n">
-        <v>163.9755900171802</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713027</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>38.18406822271729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H41" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.968575157640022</v>
       </c>
       <c r="S41" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>185.1079601437685</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871049</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H42" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S42" t="n">
-        <v>149.7702446909496</v>
+        <v>85.43946486559487</v>
       </c>
       <c r="T42" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U42" t="n">
-        <v>209.8243406608218</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W42" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715764</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098452</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,13 +25803,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H43" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T43" t="n">
-        <v>199.4690023478354</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U43" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750816</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>38.18406822271729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.05906618577492</v>
+        <v>129.5510637697901</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C44" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>356.0121383413529</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H44" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T44" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U44" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>173.9450204377219</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>95.06806106661227</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>140.8775919283423</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I45" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>149.7702446909496</v>
@@ -26000,13 +26000,13 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U45" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>59.84598226904559</v>
       </c>
       <c r="G46" t="n">
         <v>167.0019352027142</v>
@@ -26046,7 +26046,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J46" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T46" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U46" t="n">
-        <v>212.8232894082955</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.05906618577492</v>
+        <v>31.05906618577495</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>908772.7770513778</v>
+        <v>908772.7770513779</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>376246.4539964974</v>
+        <v>376246.4539964975</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>376246.4539964974</v>
+        <v>376246.4539964975</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>376246.4539964974</v>
+        <v>376246.4539964975</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>376246.4539964975</v>
+        <v>376246.4539964974</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>376246.4539964975</v>
+        <v>376246.4539964974</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>376246.4539964974</v>
+        <v>376246.4539964975</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>376246.4539964976</v>
+        <v>376246.4539964975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>376246.4539964974</v>
+        <v>376246.4539964976</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>376246.4539964976</v>
+        <v>376246.4539964973</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377791</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
         <v>614481.4279416</v>
       </c>
       <c r="E2" t="n">
-        <v>270662.4246612339</v>
+        <v>270662.424661234</v>
       </c>
       <c r="F2" t="n">
         <v>270662.4246612338</v>
       </c>
       <c r="G2" t="n">
-        <v>270662.4246612338</v>
+        <v>270662.4246612341</v>
       </c>
       <c r="H2" t="n">
         <v>270662.424661234</v>
       </c>
       <c r="I2" t="n">
+        <v>270662.4246612339</v>
+      </c>
+      <c r="J2" t="n">
         <v>270662.424661234</v>
-      </c>
-      <c r="J2" t="n">
-        <v>270662.4246612338</v>
       </c>
       <c r="K2" t="n">
         <v>270662.4246612339</v>
       </c>
       <c r="L2" t="n">
-        <v>270662.4246612339</v>
+        <v>270662.4246612338</v>
       </c>
       <c r="M2" t="n">
         <v>270662.424661234</v>
       </c>
       <c r="N2" t="n">
-        <v>270662.4246612338</v>
+        <v>270662.424661234</v>
       </c>
       <c r="O2" t="n">
-        <v>270662.4246612339</v>
+        <v>270662.424661234</v>
       </c>
       <c r="P2" t="n">
-        <v>270662.4246612339</v>
+        <v>270662.424661234</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>86261.9569480944</v>
+        <v>86261.95694809427</v>
       </c>
       <c r="E3" t="n">
-        <v>415710.9654873147</v>
+        <v>415710.965487315</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>46732.12642419559</v>
+        <v>46732.12642419562</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>429130.5813979806</v>
       </c>
       <c r="E4" t="n">
-        <v>15525.83421189299</v>
+        <v>15525.834211893</v>
       </c>
       <c r="F4" t="n">
         <v>15525.83421189299</v>
       </c>
       <c r="G4" t="n">
+        <v>15525.834211893</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15525.834211893</v>
+      </c>
+      <c r="I4" t="n">
         <v>15525.83421189299</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15525.83421189299</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15525.834211893</v>
       </c>
       <c r="J4" t="n">
         <v>15525.83421189299</v>
@@ -26447,13 +26447,13 @@
         <v>15525.83421189299</v>
       </c>
       <c r="L4" t="n">
-        <v>15525.83421189299</v>
+        <v>15525.834211893</v>
       </c>
       <c r="M4" t="n">
         <v>15525.834211893</v>
       </c>
       <c r="N4" t="n">
-        <v>15525.83421189299</v>
+        <v>15525.834211893</v>
       </c>
       <c r="O4" t="n">
         <v>15525.83421189299</v>
@@ -26490,28 +26490,28 @@
         <v>23358.20041161357</v>
       </c>
       <c r="I5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="J5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="K5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="L5" t="n">
         <v>23358.20041161357</v>
       </c>
       <c r="M5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="N5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="O5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="P5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161356</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117678.9229356687</v>
+        <v>117634.7871569882</v>
       </c>
       <c r="C6" t="n">
-        <v>117678.9229356687</v>
+        <v>117634.7871569879</v>
       </c>
       <c r="D6" t="n">
-        <v>63265.49333172214</v>
+        <v>63222.16334983519</v>
       </c>
       <c r="E6" t="n">
-        <v>-183932.5754495874</v>
+        <v>-195436.5388741535</v>
       </c>
       <c r="F6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131613</v>
       </c>
       <c r="G6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131616</v>
       </c>
       <c r="H6" t="n">
-        <v>231778.3900377274</v>
+        <v>220274.4266131615</v>
       </c>
       <c r="I6" t="n">
-        <v>231778.3900377274</v>
+        <v>220274.4266131614</v>
       </c>
       <c r="J6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131615</v>
       </c>
       <c r="K6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131614</v>
       </c>
       <c r="L6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131613</v>
       </c>
       <c r="M6" t="n">
-        <v>185046.2636135318</v>
+        <v>173542.3001889659</v>
       </c>
       <c r="N6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131615</v>
       </c>
       <c r="O6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131615</v>
       </c>
       <c r="P6" t="n">
-        <v>231778.3900377273</v>
+        <v>220274.4266131615</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.7245992570117</v>
+        <v>100.7245992570115</v>
       </c>
       <c r="E3" t="n">
         <v>548.4699409129046</v>
@@ -26804,34 +26804,34 @@
         <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="L4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="P4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.7245992570117</v>
+        <v>100.7245992570115</v>
       </c>
       <c r="E3" t="n">
-        <v>447.7453416558929</v>
+        <v>447.7453416558931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>335.3278843182159</v>
       </c>
       <c r="I8" t="n">
-        <v>194.8650951468644</v>
+        <v>194.8650951468645</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>124.4333727830461</v>
+        <v>124.4333727830462</v>
       </c>
       <c r="S8" t="n">
         <v>199.7928864482789</v>
@@ -27952,7 +27952,7 @@
         <v>110.1430332217423</v>
       </c>
       <c r="I9" t="n">
-        <v>81.93731111398543</v>
+        <v>81.93731111398544</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>86.70634899148976</v>
+        <v>86.70634899148978</v>
       </c>
       <c r="S9" t="n">
         <v>167.6589382938997</v>
@@ -28034,10 +28034,10 @@
         <v>149.9882294462387</v>
       </c>
       <c r="J10" t="n">
-        <v>80.5176193228731</v>
+        <v>80.51761932287313</v>
       </c>
       <c r="K10" t="n">
-        <v>1.166862670069591</v>
+        <v>1.166862670069623</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.95262876388563</v>
+        <v>70.95262876388564</v>
       </c>
       <c r="R10" t="n">
-        <v>169.1264427226583</v>
+        <v>169.1264427226584</v>
       </c>
       <c r="S10" t="n">
         <v>220.8512036636003</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4049230120884889</v>
+        <v>0.4049230120884882</v>
       </c>
       <c r="H8" t="n">
-        <v>4.146917797551238</v>
+        <v>4.146917797551231</v>
       </c>
       <c r="I8" t="n">
-        <v>15.61079442354148</v>
+        <v>15.61079442354146</v>
       </c>
       <c r="J8" t="n">
-        <v>34.36733449724542</v>
+        <v>34.36733449724536</v>
       </c>
       <c r="K8" t="n">
-        <v>51.50772559895116</v>
+        <v>51.50772559895108</v>
       </c>
       <c r="L8" t="n">
-        <v>63.89988823015427</v>
+        <v>63.89988823015417</v>
       </c>
       <c r="M8" t="n">
-        <v>71.10093784638293</v>
+        <v>71.10093784638282</v>
       </c>
       <c r="N8" t="n">
-        <v>72.25142535447935</v>
+        <v>72.25142535447924</v>
       </c>
       <c r="O8" t="n">
-        <v>68.22497215302444</v>
+        <v>68.22497215302432</v>
       </c>
       <c r="P8" t="n">
-        <v>58.22843529208986</v>
+        <v>58.22843529208977</v>
       </c>
       <c r="Q8" t="n">
-        <v>43.72712992167084</v>
+        <v>43.72712992167077</v>
       </c>
       <c r="R8" t="n">
-        <v>25.43574515810356</v>
+        <v>25.43574515810352</v>
       </c>
       <c r="S8" t="n">
-        <v>9.227183137966451</v>
+        <v>9.227183137966435</v>
       </c>
       <c r="T8" t="n">
-        <v>1.772550485417361</v>
+        <v>1.772550485417358</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0323938409670791</v>
+        <v>0.03239384096707906</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2166529116094214</v>
+        <v>0.216652911609421</v>
       </c>
       <c r="H9" t="n">
-        <v>2.092411014754149</v>
+        <v>2.092411014754146</v>
       </c>
       <c r="I9" t="n">
-        <v>7.45932173742964</v>
+        <v>7.459321737429629</v>
       </c>
       <c r="J9" t="n">
-        <v>20.46894898674801</v>
+        <v>20.46894898674798</v>
       </c>
       <c r="K9" t="n">
-        <v>34.98469406457924</v>
+        <v>34.98469406457919</v>
       </c>
       <c r="L9" t="n">
-        <v>47.04123854922985</v>
+        <v>47.04123854922978</v>
       </c>
       <c r="M9" t="n">
-        <v>54.89490659507136</v>
+        <v>54.89490659507128</v>
       </c>
       <c r="N9" t="n">
-        <v>56.34781142775034</v>
+        <v>56.34781142775026</v>
       </c>
       <c r="O9" t="n">
-        <v>51.54723901787843</v>
+        <v>51.54723901787835</v>
       </c>
       <c r="P9" t="n">
-        <v>41.37120379671487</v>
+        <v>41.37120379671479</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.65555412052895</v>
+        <v>27.6555541205289</v>
       </c>
       <c r="R9" t="n">
-        <v>13.45148516115338</v>
+        <v>13.45148516115336</v>
       </c>
       <c r="S9" t="n">
-        <v>4.024232809938153</v>
+        <v>4.024232809938147</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8732632709169218</v>
+        <v>0.8732632709169205</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01425348102693562</v>
+        <v>0.0142534810269356</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1816345232503489</v>
+        <v>0.1816345232503487</v>
       </c>
       <c r="H10" t="n">
-        <v>1.614896033989467</v>
+        <v>1.614896033989465</v>
       </c>
       <c r="I10" t="n">
-        <v>5.462245481019586</v>
+        <v>5.462245481019577</v>
       </c>
       <c r="J10" t="n">
-        <v>12.84156079379967</v>
+        <v>12.84156079379965</v>
       </c>
       <c r="K10" t="n">
-        <v>21.10262915581326</v>
+        <v>21.10262915581323</v>
       </c>
       <c r="L10" t="n">
-        <v>27.00409993851097</v>
+        <v>27.00409993851093</v>
       </c>
       <c r="M10" t="n">
-        <v>28.47203713096151</v>
+        <v>28.47203713096147</v>
       </c>
       <c r="N10" t="n">
-        <v>27.79503572611932</v>
+        <v>27.79503572611928</v>
       </c>
       <c r="O10" t="n">
-        <v>25.67321424996751</v>
+        <v>25.67321424996747</v>
       </c>
       <c r="P10" t="n">
-        <v>21.96786997566037</v>
+        <v>21.96786997566034</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.20941448780876</v>
+        <v>15.20941448780874</v>
       </c>
       <c r="R10" t="n">
-        <v>8.166948654511142</v>
+        <v>8.166948654511129</v>
       </c>
       <c r="S10" t="n">
-        <v>3.165394373371989</v>
+        <v>3.165394373371984</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7760747811605816</v>
+        <v>0.7760747811605804</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009907337631837225</v>
+        <v>0.00990733763183721</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
         <v>256.1509851405032</v>
@@ -32323,7 +32323,7 @@
         <v>256.1509851405032</v>
       </c>
       <c r="M18" t="n">
-        <v>298.9161177975327</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N18" t="n">
         <v>306.8275379829654</v>
@@ -32560,7 +32560,7 @@
         <v>256.1509851405032</v>
       </c>
       <c r="M21" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N21" t="n">
         <v>306.8275379829654</v>
@@ -34140,7 +34140,7 @@
         <v>347.9504329672893</v>
       </c>
       <c r="M41" t="n">
-        <v>387.161899547027</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N41" t="n">
         <v>393.4265838470024</v>
@@ -34377,10 +34377,10 @@
         <v>347.9504329672893</v>
       </c>
       <c r="M44" t="n">
-        <v>387.161899547027</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N44" t="n">
-        <v>393.4265838470024</v>
+        <v>393.426583847002</v>
       </c>
       <c r="O44" t="n">
         <v>371.501566862268</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781449</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L12" t="n">
         <v>117.596605360629</v>
@@ -35500,7 +35500,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O12" t="n">
         <v>138.0910091848229</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>74.0341892652894</v>
       </c>
       <c r="L13" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M13" t="n">
         <v>187.5255871663199</v>
@@ -35585,7 +35585,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P13" t="n">
-        <v>28.45844197068212</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973017</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
         <v>156.8156663197546</v>
@@ -35810,7 +35810,7 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L16" t="n">
-        <v>174.6339172880152</v>
+        <v>110.4529028080733</v>
       </c>
       <c r="M16" t="n">
         <v>187.5255871663199</v>
@@ -35819,7 +35819,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="O16" t="n">
-        <v>100.2010091933411</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>112.184017997302</v>
       </c>
       <c r="M17" t="n">
-        <v>156.8156663197543</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N17" t="n">
         <v>164.0135202504115</v>
@@ -35968,10 +35968,10 @@
         <v>52.65872908781469</v>
       </c>
       <c r="L18" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M18" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N18" t="n">
         <v>175.4858258996321</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>28.45844197068227</v>
       </c>
       <c r="L19" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M19" t="n">
-        <v>99.08507489005474</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N19" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O19" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P19" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>117.596605360629</v>
       </c>
       <c r="M21" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N21" t="n">
         <v>175.4858258996321</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>74.0341892652894</v>
+        <v>28.45844197068227</v>
       </c>
       <c r="L22" t="n">
-        <v>12.15921574646077</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M22" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N22" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O22" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P22" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N24" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996317</v>
       </c>
       <c r="O24" t="n">
         <v>138.0910091848229</v>
@@ -36521,19 +36521,19 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L25" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M25" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N25" t="n">
-        <v>169.4872848053133</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O25" t="n">
-        <v>1.340357307400524</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P25" t="n">
-        <v>116.8989542469472</v>
+        <v>98.2936870616125</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>60.38224240788333</v>
       </c>
       <c r="L26" t="n">
-        <v>112.1840179973017</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M26" t="n">
         <v>156.8156663197546</v>
@@ -36615,7 +36615,7 @@
         <v>85.8349965691599</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065931</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.60944440764971</v>
+        <v>10.6094444076496</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>75.41988959484647</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M28" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N28" t="n">
-        <v>23.66518529520826</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O28" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P28" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867589</v>
       </c>
       <c r="K29" t="n">
         <v>60.38224240788333</v>
       </c>
       <c r="L29" t="n">
-        <v>112.1840179973017</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M29" t="n">
         <v>156.8156663197546</v>
@@ -36931,7 +36931,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.60944440764971</v>
+        <v>10.6094444076496</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>92.63945645062401</v>
+        <v>28.45844197068204</v>
       </c>
       <c r="L31" t="n">
-        <v>157.4143504322377</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M31" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N31" t="n">
-        <v>23.66518529520826</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O31" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P31" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>156.8156663197546</v>
       </c>
       <c r="N32" t="n">
-        <v>164.0135202504112</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O32" t="n">
         <v>141.4033554405812</v>
@@ -37165,7 +37165,7 @@
         <v>138.0910091848229</v>
       </c>
       <c r="P33" t="n">
-        <v>91.30185944855675</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q33" t="n">
         <v>10.60944440764996</v>
@@ -37238,13 +37238,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="N34" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005487</v>
       </c>
       <c r="O34" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P34" t="n">
-        <v>28.45844197068212</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>117.596605360629</v>
       </c>
       <c r="M36" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N36" t="n">
         <v>175.4858258996321</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M37" t="n">
-        <v>123.3445726863781</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N37" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O37" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>6.092590538867702</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K38" t="n">
         <v>60.38224240788333</v>
@@ -37557,7 +37557,7 @@
         <v>164.0135202504115</v>
       </c>
       <c r="O38" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P38" t="n">
         <v>85.8349965691599</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>28.45844197068213</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M40" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N40" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005521</v>
       </c>
       <c r="O40" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>112.184017997302</v>
       </c>
       <c r="M41" t="n">
-        <v>156.8156663197543</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N41" t="n">
         <v>164.0135202504115</v>
@@ -37867,7 +37867,7 @@
         <v>117.596605360629</v>
       </c>
       <c r="M42" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N42" t="n">
         <v>175.4858258996321</v>
@@ -37943,16 +37943,16 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L43" t="n">
-        <v>12.15921574646077</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M43" t="n">
-        <v>187.5255871663199</v>
+        <v>170.3060203105422</v>
       </c>
       <c r="N43" t="n">
-        <v>187.5255871663199</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O43" t="n">
-        <v>145.7767564879483</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P43" t="n">
         <v>116.8989542469472</v>
@@ -38025,10 +38025,10 @@
         <v>112.184017997302</v>
       </c>
       <c r="M44" t="n">
-        <v>156.8156663197543</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N44" t="n">
-        <v>164.0135202504115</v>
+        <v>164.013520250411</v>
       </c>
       <c r="O44" t="n">
         <v>141.4033554405812</v>
@@ -38107,7 +38107,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N45" t="n">
-        <v>175.4858258996318</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O45" t="n">
         <v>138.0910091848229</v>
@@ -38183,13 +38183,13 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M46" t="n">
-        <v>169.4872848053133</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N46" t="n">
-        <v>187.5255871663199</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O46" t="n">
-        <v>1.340357307400524</v>
+        <v>147.1624568175054</v>
       </c>
       <c r="P46" t="n">
         <v>116.8989542469472</v>
